--- a/Code/Results/Cases/Case_3_103/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_103/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9922027389740364</v>
+        <v>1.050528638925254</v>
       </c>
       <c r="D2">
-        <v>1.010305095916866</v>
+        <v>1.048496406949045</v>
       </c>
       <c r="E2">
-        <v>1.004285827578363</v>
+        <v>1.057278510796025</v>
       </c>
       <c r="F2">
-        <v>1.005234715300567</v>
+        <v>1.067571630651033</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038320292200656</v>
+        <v>1.036456859639565</v>
       </c>
       <c r="J2">
-        <v>1.014619192470629</v>
+        <v>1.055561314756512</v>
       </c>
       <c r="K2">
-        <v>1.021622707256155</v>
+        <v>1.051256089456256</v>
       </c>
       <c r="L2">
-        <v>1.015685775199043</v>
+        <v>1.06001391771789</v>
       </c>
       <c r="M2">
-        <v>1.01662160079866</v>
+        <v>1.070279135350954</v>
       </c>
       <c r="N2">
-        <v>1.016060068102385</v>
+        <v>1.057060332898042</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.001420233970036</v>
+        <v>1.052277394149757</v>
       </c>
       <c r="D3">
-        <v>1.017260972194691</v>
+        <v>1.049812534128018</v>
       </c>
       <c r="E3">
-        <v>1.012603645465539</v>
+        <v>1.058911033885642</v>
       </c>
       <c r="F3">
-        <v>1.014694513022827</v>
+        <v>1.069462546953422</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04082574804305</v>
+        <v>1.036827886014476</v>
       </c>
       <c r="J3">
-        <v>1.021872256710766</v>
+        <v>1.056955887792743</v>
       </c>
       <c r="K3">
-        <v>1.027677658461802</v>
+        <v>1.052382969914302</v>
       </c>
       <c r="L3">
-        <v>1.023077760717898</v>
+        <v>1.061458166361066</v>
       </c>
       <c r="M3">
-        <v>1.025142764855489</v>
+        <v>1.071983189389152</v>
       </c>
       <c r="N3">
-        <v>1.023323432525681</v>
+        <v>1.058456886387943</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.007167330919156</v>
+        <v>1.053405986869099</v>
       </c>
       <c r="D4">
-        <v>1.021599700083729</v>
+        <v>1.050661316087223</v>
       </c>
       <c r="E4">
-        <v>1.017796448470715</v>
+        <v>1.059964849921135</v>
       </c>
       <c r="F4">
-        <v>1.020603508330584</v>
+        <v>1.07068382793268</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042373211199844</v>
+        <v>1.037065383144963</v>
       </c>
       <c r="J4">
-        <v>1.0263894557575</v>
+        <v>1.057855016510148</v>
       </c>
       <c r="K4">
-        <v>1.03144424196007</v>
+        <v>1.053108760611559</v>
       </c>
       <c r="L4">
-        <v>1.027684727973525</v>
+        <v>1.062389683337169</v>
       </c>
       <c r="M4">
-        <v>1.030459467575361</v>
+        <v>1.073083133202091</v>
       </c>
       <c r="N4">
-        <v>1.027847046513191</v>
+        <v>1.059357291971259</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009534992133362</v>
+        <v>1.053879751762024</v>
       </c>
       <c r="D5">
-        <v>1.023387392135403</v>
+        <v>1.05101747450394</v>
       </c>
       <c r="E5">
-        <v>1.019937245524489</v>
+        <v>1.060407280636759</v>
       </c>
       <c r="F5">
-        <v>1.023040407541244</v>
+        <v>1.071196727175035</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043007114583946</v>
+        <v>1.037164612656027</v>
       </c>
       <c r="J5">
-        <v>1.028249122863926</v>
+        <v>1.058232243547891</v>
       </c>
       <c r="K5">
-        <v>1.03299377843387</v>
+        <v>1.053413084552657</v>
       </c>
       <c r="L5">
-        <v>1.02958213506993</v>
+        <v>1.062780585335306</v>
       </c>
       <c r="M5">
-        <v>1.032650651698971</v>
+        <v>1.073544919360419</v>
       </c>
       <c r="N5">
-        <v>1.029709354560216</v>
+        <v>1.059735054714664</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.009929790810849</v>
+        <v>1.053959258629429</v>
       </c>
       <c r="D6">
-        <v>1.023685492652148</v>
+        <v>1.051077236110433</v>
       </c>
       <c r="E6">
-        <v>1.020294300308729</v>
+        <v>1.060481532284116</v>
       </c>
       <c r="F6">
-        <v>1.023446899284976</v>
+        <v>1.071282814749908</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043112600555138</v>
+        <v>1.037181237815144</v>
       </c>
       <c r="J6">
-        <v>1.028559136110827</v>
+        <v>1.058295537020639</v>
       </c>
       <c r="K6">
-        <v>1.033252024928947</v>
+        <v>1.053464135342626</v>
       </c>
       <c r="L6">
-        <v>1.029898485954019</v>
+        <v>1.062846178359608</v>
       </c>
       <c r="M6">
-        <v>1.033016070698367</v>
+        <v>1.073622418751153</v>
       </c>
       <c r="N6">
-        <v>1.030019808061486</v>
+        <v>1.059798438071404</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.007199153517608</v>
+        <v>1.053412320050688</v>
       </c>
       <c r="D7">
-        <v>1.021623726849035</v>
+        <v>1.05066607770977</v>
       </c>
       <c r="E7">
-        <v>1.017825216118392</v>
+        <v>1.05997076401577</v>
       </c>
       <c r="F7">
-        <v>1.02063625152776</v>
+        <v>1.070690683367754</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042381745625101</v>
+        <v>1.037066711463009</v>
       </c>
       <c r="J7">
-        <v>1.026414455941406</v>
+        <v>1.057860060032106</v>
       </c>
       <c r="K7">
-        <v>1.031465077419482</v>
+        <v>1.053112830126874</v>
       </c>
       <c r="L7">
-        <v>1.027710232396846</v>
+        <v>1.062394909352599</v>
       </c>
       <c r="M7">
-        <v>1.030488915008426</v>
+        <v>1.073089306067807</v>
       </c>
       <c r="N7">
-        <v>1.027872082200227</v>
+        <v>1.059362342655596</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9953651039891915</v>
+        <v>1.051120262886017</v>
       </c>
       <c r="D8">
-        <v>1.012691053847726</v>
+        <v>1.048941792728044</v>
       </c>
       <c r="E8">
-        <v>1.007138049063581</v>
+        <v>1.05783076276899</v>
       </c>
       <c r="F8">
-        <v>1.008477877724054</v>
+        <v>1.068211153861196</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039182928246008</v>
+        <v>1.036582786601746</v>
       </c>
       <c r="J8">
-        <v>1.01710861437698</v>
+        <v>1.056033298216218</v>
       </c>
       <c r="K8">
-        <v>1.023701817646966</v>
+        <v>1.051637629014216</v>
       </c>
       <c r="L8">
-        <v>1.018222191324211</v>
+        <v>1.060502638786597</v>
       </c>
       <c r="M8">
-        <v>1.01954422241971</v>
+        <v>1.070855594787259</v>
       </c>
       <c r="N8">
-        <v>1.018553025273383</v>
+        <v>1.057532986628398</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9726628432245457</v>
+        <v>1.047057939490574</v>
       </c>
       <c r="D9">
-        <v>0.9955786621571487</v>
+        <v>1.045881156491988</v>
       </c>
       <c r="E9">
-        <v>0.9866966341153196</v>
+        <v>1.054039780219328</v>
       </c>
       <c r="F9">
-        <v>0.985245916055416</v>
+        <v>1.06382382339673</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032929880732143</v>
+        <v>1.035710104655525</v>
       </c>
       <c r="J9">
-        <v>0.999219304597724</v>
+        <v>1.052788845272026</v>
       </c>
       <c r="K9">
-        <v>1.008743882110076</v>
+        <v>1.049011834042863</v>
       </c>
       <c r="L9">
-        <v>1.000009300846404</v>
+        <v>1.057144611509583</v>
       </c>
       <c r="M9">
-        <v>0.998582991310046</v>
+        <v>1.066898230036181</v>
       </c>
       <c r="N9">
-        <v>1.000638310622309</v>
+        <v>1.054283926188881</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.955978329781949</v>
+        <v>1.044333007124472</v>
       </c>
       <c r="D10">
-        <v>0.9830344650767469</v>
+        <v>1.043825124168709</v>
       </c>
       <c r="E10">
-        <v>0.9717251121544368</v>
+        <v>1.051498139732728</v>
       </c>
       <c r="F10">
-        <v>0.968241071989773</v>
+        <v>1.060885781310262</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02826182270387</v>
+        <v>1.035114665192634</v>
       </c>
       <c r="J10">
-        <v>0.9860543583412762</v>
+        <v>1.050607983374657</v>
       </c>
       <c r="K10">
-        <v>0.997716946036487</v>
+        <v>1.047242995511265</v>
       </c>
       <c r="L10">
-        <v>0.9866243599077293</v>
+        <v>1.05488926404603</v>
       </c>
       <c r="M10">
-        <v>0.9832084378802765</v>
+        <v>1.064244760289593</v>
       </c>
       <c r="N10">
-        <v>0.9874546686321367</v>
+        <v>1.052099967217469</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.948299912769849</v>
+        <v>1.043148899965227</v>
       </c>
       <c r="D11">
-        <v>0.9772734461031822</v>
+        <v>1.042930988199014</v>
       </c>
       <c r="E11">
-        <v>0.9648499921184536</v>
+        <v>1.05039399389662</v>
       </c>
       <c r="F11">
-        <v>0.9604331709015264</v>
+        <v>1.059610233272208</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026098262692733</v>
+        <v>1.034853540878897</v>
       </c>
       <c r="J11">
-        <v>0.9799936787828216</v>
+        <v>1.049659229042471</v>
       </c>
       <c r="K11">
-        <v>0.9926370669132</v>
+        <v>1.04647258618044</v>
       </c>
       <c r="L11">
-        <v>0.9804666906281627</v>
+        <v>1.05390854409118</v>
       </c>
       <c r="M11">
-        <v>0.9761419309916354</v>
+        <v>1.063091961320046</v>
       </c>
       <c r="N11">
-        <v>0.9813853822135394</v>
+        <v>1.051149865545308</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9453705166877442</v>
+        <v>1.042708421075772</v>
       </c>
       <c r="D12">
-        <v>0.9750777966522853</v>
+        <v>1.042598273329866</v>
       </c>
       <c r="E12">
-        <v>0.9622295890885645</v>
+        <v>1.049983307724162</v>
       </c>
       <c r="F12">
-        <v>0.9574572263777752</v>
+        <v>1.059135914350814</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025270750428396</v>
+        <v>1.034756047857929</v>
       </c>
       <c r="J12">
-        <v>0.9776813886826641</v>
+        <v>1.049306139352295</v>
       </c>
       <c r="K12">
-        <v>0.990698566101015</v>
+        <v>1.046185734998718</v>
       </c>
       <c r="L12">
-        <v>0.9781180396214161</v>
+        <v>1.053543623706439</v>
       </c>
       <c r="M12">
-        <v>0.9734475318791607</v>
+        <v>1.062663167355153</v>
       </c>
       <c r="N12">
-        <v>0.979069808396216</v>
+        <v>1.050796274427272</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9460025451269919</v>
+        <v>1.042802934954245</v>
       </c>
       <c r="D13">
-        <v>0.97555140767814</v>
+        <v>1.042669668841372</v>
       </c>
       <c r="E13">
-        <v>0.9627948321975037</v>
+        <v>1.050071426787076</v>
       </c>
       <c r="F13">
-        <v>0.9580991665242536</v>
+        <v>1.059237681375523</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025449380083465</v>
+        <v>1.034776983137258</v>
       </c>
       <c r="J13">
-        <v>0.9781802736320948</v>
+        <v>1.049381909307889</v>
       </c>
       <c r="K13">
-        <v>0.9911168211163301</v>
+        <v>1.046247296829901</v>
       </c>
       <c r="L13">
-        <v>0.9786247406002363</v>
+        <v>1.053621929457208</v>
       </c>
       <c r="M13">
-        <v>0.9740287857443229</v>
+        <v>1.062755172243591</v>
       </c>
       <c r="N13">
-        <v>0.979569401819498</v>
+        <v>1.050872151984894</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.948059403605509</v>
+        <v>1.043112503186733</v>
       </c>
       <c r="D14">
-        <v>0.9770931309103871</v>
+        <v>1.042903498055955</v>
       </c>
       <c r="E14">
-        <v>0.9646347990140389</v>
+        <v>1.050360057913758</v>
       </c>
       <c r="F14">
-        <v>0.960188781370822</v>
+        <v>1.059571036715777</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026030363344893</v>
+        <v>1.034845492299469</v>
       </c>
       <c r="J14">
-        <v>0.9798038353782837</v>
+        <v>1.049630056499659</v>
       </c>
       <c r="K14">
-        <v>0.9924779198862311</v>
+        <v>1.046448889054975</v>
       </c>
       <c r="L14">
-        <v>0.9802738489265371</v>
+        <v>1.053878392749334</v>
       </c>
       <c r="M14">
-        <v>0.9759206830667077</v>
+        <v>1.06305652928006</v>
       </c>
       <c r="N14">
-        <v>0.9811952692095917</v>
+        <v>1.05112065157414</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9493161582203371</v>
+        <v>1.043303151859102</v>
       </c>
       <c r="D15">
-        <v>0.9780354419372712</v>
+        <v>1.04304748898869</v>
       </c>
       <c r="E15">
-        <v>0.9657593714296347</v>
+        <v>1.050537818737031</v>
       </c>
       <c r="F15">
-        <v>0.9614659288982549</v>
+        <v>1.0597763579809</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026385080593872</v>
+        <v>1.034887636679974</v>
       </c>
       <c r="J15">
-        <v>0.9807958398279041</v>
+        <v>1.049782857603712</v>
       </c>
       <c r="K15">
-        <v>0.9933095081580149</v>
+        <v>1.046573005296009</v>
       </c>
       <c r="L15">
-        <v>0.9812815466625306</v>
+        <v>1.054036323332253</v>
       </c>
       <c r="M15">
-        <v>0.9770768540093104</v>
+        <v>1.063242126167995</v>
       </c>
       <c r="N15">
-        <v>0.982188682419315</v>
+        <v>1.051273669673286</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9564776201395621</v>
+        <v>1.044411502470198</v>
       </c>
       <c r="D16">
-        <v>0.9834093574489491</v>
+        <v>1.04388438258997</v>
       </c>
       <c r="E16">
-        <v>0.9721724975608889</v>
+        <v>1.051571341023704</v>
       </c>
       <c r="F16">
-        <v>0.9687491630264461</v>
+        <v>1.06097036287251</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028402211105437</v>
+        <v>1.035131925323415</v>
       </c>
       <c r="J16">
-        <v>0.9864484316091242</v>
+        <v>1.050670854530742</v>
       </c>
       <c r="K16">
-        <v>0.9980471841436548</v>
+        <v>1.047294029392464</v>
       </c>
       <c r="L16">
-        <v>0.9870248275382655</v>
+        <v>1.054954262672493</v>
       </c>
       <c r="M16">
-        <v>0.9836681395059182</v>
+        <v>1.064321185569825</v>
       </c>
       <c r="N16">
-        <v>0.9878493015292259</v>
+        <v>1.052162927657807</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9608423916468772</v>
+        <v>1.04510560565049</v>
       </c>
       <c r="D17">
-        <v>0.98668803138925</v>
+        <v>1.044408301184233</v>
       </c>
       <c r="E17">
-        <v>0.9760852188684523</v>
+        <v>1.052218667123161</v>
       </c>
       <c r="F17">
-        <v>0.9731928905082312</v>
+        <v>1.06171841841493</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029627794126339</v>
+        <v>1.035284275593797</v>
       </c>
       <c r="J17">
-        <v>0.9898931984687533</v>
+        <v>1.05122667583086</v>
       </c>
       <c r="K17">
-        <v>1.000933564211671</v>
+        <v>1.047745097941659</v>
       </c>
       <c r="L17">
-        <v>0.9905259693598693</v>
+        <v>1.055528942662973</v>
       </c>
       <c r="M17">
-        <v>0.9876878588330229</v>
+        <v>1.06499701335642</v>
       </c>
       <c r="N17">
-        <v>0.9912989603529156</v>
+        <v>1.052719538287925</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9633451900092248</v>
+        <v>1.045510060961254</v>
       </c>
       <c r="D18">
-        <v>0.9885691338210725</v>
+        <v>1.044713522447923</v>
       </c>
       <c r="E18">
-        <v>0.9783301783903093</v>
+        <v>1.052595895389186</v>
       </c>
       <c r="F18">
-        <v>0.9757426194426166</v>
+        <v>1.062154424026513</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03032912080591</v>
+        <v>1.035372821325605</v>
       </c>
       <c r="J18">
-        <v>0.9918682550889356</v>
+        <v>1.051550450899088</v>
       </c>
       <c r="K18">
-        <v>1.002588139860529</v>
+        <v>1.048007766151233</v>
       </c>
       <c r="L18">
-        <v>0.9925337472541992</v>
+        <v>1.055863745414477</v>
       </c>
       <c r="M18">
-        <v>0.9899936293309326</v>
+        <v>1.065390844036131</v>
       </c>
       <c r="N18">
-        <v>0.9932768217800408</v>
+        <v>1.053043773153888</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9641915181308667</v>
+        <v>1.045647901922151</v>
       </c>
       <c r="D19">
-        <v>0.9892054055315961</v>
+        <v>1.044817532373476</v>
       </c>
       <c r="E19">
-        <v>0.9790895426833637</v>
+        <v>1.052724462274183</v>
       </c>
       <c r="F19">
-        <v>0.9766050941046037</v>
+        <v>1.062303036547165</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030566027775178</v>
+        <v>1.035402959404299</v>
       </c>
       <c r="J19">
-        <v>0.9925360854920307</v>
+        <v>1.051660778009289</v>
       </c>
       <c r="K19">
-        <v>1.003147546325239</v>
+        <v>1.048097256239431</v>
       </c>
       <c r="L19">
-        <v>0.9932127094611507</v>
+        <v>1.055977837394225</v>
       </c>
       <c r="M19">
-        <v>0.9907734674468691</v>
+        <v>1.065525068197733</v>
       </c>
       <c r="N19">
-        <v>0.9939456005789091</v>
+        <v>1.05315425694124</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9603786111590684</v>
+        <v>1.045031176801869</v>
       </c>
       <c r="D20">
-        <v>0.9863395391089981</v>
+        <v>1.044352128206167</v>
       </c>
       <c r="E20">
-        <v>0.9756693266281328</v>
+        <v>1.052149251076885</v>
       </c>
       <c r="F20">
-        <v>0.9727205470430007</v>
+        <v>1.061638192634996</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029497717247421</v>
+        <v>1.035267962737269</v>
       </c>
       <c r="J20">
-        <v>0.9895271931114548</v>
+        <v>1.051167085646725</v>
       </c>
       <c r="K20">
-        <v>1.00062692089647</v>
+        <v>1.047696747372895</v>
       </c>
       <c r="L20">
-        <v>0.9901539326817274</v>
+        <v>1.055467326254488</v>
       </c>
       <c r="M20">
-        <v>0.9872606545734069</v>
+        <v>1.064924541647712</v>
       </c>
       <c r="N20">
-        <v>0.9909324352260284</v>
+        <v>1.052659863478893</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9474559255778072</v>
+        <v>1.043021361118877</v>
       </c>
       <c r="D21">
-        <v>0.9766407272573722</v>
+        <v>1.042834657653861</v>
       </c>
       <c r="E21">
-        <v>0.9640948848290715</v>
+        <v>1.050275078757734</v>
       </c>
       <c r="F21">
-        <v>0.9595756131763553</v>
+        <v>1.059472886486557</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025859959615816</v>
+        <v>1.034825331894977</v>
       </c>
       <c r="J21">
-        <v>0.9793274858644766</v>
+        <v>1.049557002231862</v>
       </c>
       <c r="K21">
-        <v>0.9920785866732105</v>
+        <v>1.046389544228455</v>
       </c>
       <c r="L21">
-        <v>0.9797899864870575</v>
+        <v>1.05380288841987</v>
       </c>
       <c r="M21">
-        <v>0.9753655602503277</v>
+        <v>1.062967803660582</v>
       </c>
       <c r="N21">
-        <v>0.9807182432248366</v>
+        <v>1.051047493560902</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.938877840377399</v>
+        <v>1.041753947211153</v>
       </c>
       <c r="D22">
-        <v>0.970216091274632</v>
+        <v>1.041877126470264</v>
       </c>
       <c r="E22">
-        <v>0.9564267967576485</v>
+        <v>1.049093479823396</v>
       </c>
       <c r="F22">
-        <v>0.9508668591722689</v>
+        <v>1.058108433528277</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023433042825773</v>
+        <v>1.034544138078294</v>
       </c>
       <c r="J22">
-        <v>0.9725566001951793</v>
+        <v>1.048540736535283</v>
       </c>
       <c r="K22">
-        <v>0.9864015995834332</v>
+        <v>1.045563673654795</v>
       </c>
       <c r="L22">
-        <v>0.9729138535032501</v>
+        <v>1.052752695156321</v>
       </c>
       <c r="M22">
-        <v>0.9674788036456379</v>
+        <v>1.061734084354961</v>
       </c>
       <c r="N22">
-        <v>0.9739377421212578</v>
+        <v>1.050029784650466</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9434717207702245</v>
+        <v>1.042426190310532</v>
       </c>
       <c r="D23">
-        <v>0.9736552988649105</v>
+        <v>1.042385062049829</v>
       </c>
       <c r="E23">
-        <v>0.9605318304631763</v>
+        <v>1.049720179755409</v>
       </c>
       <c r="F23">
-        <v>0.9555290844714345</v>
+        <v>1.058832050432328</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0247338060275</v>
+        <v>1.034693480190616</v>
       </c>
       <c r="J23">
-        <v>0.9761826024024649</v>
+        <v>1.049079856959734</v>
       </c>
       <c r="K23">
-        <v>0.9894419637540223</v>
+        <v>1.04600186464725</v>
       </c>
       <c r="L23">
-        <v>0.9765958660849344</v>
+        <v>1.053309777918884</v>
       </c>
       <c r="M23">
-        <v>0.9717015206098489</v>
+        <v>1.062388434423745</v>
       </c>
       <c r="N23">
-        <v>0.977568893667586</v>
+        <v>1.050569670687759</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9605883061161814</v>
+        <v>1.045064809240781</v>
       </c>
       <c r="D24">
-        <v>0.9864971040101334</v>
+        <v>1.044377511505093</v>
       </c>
       <c r="E24">
-        <v>0.975857365018127</v>
+        <v>1.052180618269417</v>
       </c>
       <c r="F24">
-        <v>0.9729341085432331</v>
+        <v>1.06167444420798</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029556535033228</v>
+        <v>1.035275334796292</v>
       </c>
       <c r="J24">
-        <v>0.9896926804060383</v>
+        <v>1.051194013202303</v>
       </c>
       <c r="K24">
-        <v>1.000765569007751</v>
+        <v>1.047718596249783</v>
       </c>
       <c r="L24">
-        <v>0.9903221457635303</v>
+        <v>1.055495169287942</v>
       </c>
       <c r="M24">
-        <v>0.9874538092924389</v>
+        <v>1.064957289630926</v>
       </c>
       <c r="N24">
-        <v>0.9910981575315521</v>
+        <v>1.052686829274689</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9787796774866672</v>
+        <v>1.048111022400185</v>
       </c>
       <c r="D25">
-        <v>1.000185192704082</v>
+        <v>1.046675106153855</v>
       </c>
       <c r="E25">
-        <v>0.9921964339549492</v>
+        <v>1.055022300693879</v>
       </c>
       <c r="F25">
-        <v>0.9914943146233269</v>
+        <v>1.064960298392646</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034627436112887</v>
+        <v>1.035938102102679</v>
       </c>
       <c r="J25">
-        <v>1.004042919499181</v>
+        <v>1.053630710816539</v>
       </c>
       <c r="K25">
-        <v>1.012780634474429</v>
+        <v>1.049693845759326</v>
       </c>
       <c r="L25">
-        <v>1.004917110300918</v>
+        <v>1.058015620343417</v>
       </c>
       <c r="M25">
-        <v>1.004226121213054</v>
+        <v>1.067923919482813</v>
       </c>
       <c r="N25">
-        <v>1.005468775610203</v>
+        <v>1.05512698727903</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_103/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_103/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.050528638925254</v>
+        <v>0.9922027389740365</v>
       </c>
       <c r="D2">
-        <v>1.048496406949045</v>
+        <v>1.010305095916866</v>
       </c>
       <c r="E2">
-        <v>1.057278510796025</v>
+        <v>1.004285827578363</v>
       </c>
       <c r="F2">
-        <v>1.067571630651033</v>
+        <v>1.005234715300567</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036456859639565</v>
+        <v>1.038320292200656</v>
       </c>
       <c r="J2">
-        <v>1.055561314756512</v>
+        <v>1.014619192470629</v>
       </c>
       <c r="K2">
-        <v>1.051256089456256</v>
+        <v>1.021622707256155</v>
       </c>
       <c r="L2">
-        <v>1.06001391771789</v>
+        <v>1.015685775199043</v>
       </c>
       <c r="M2">
-        <v>1.070279135350954</v>
+        <v>1.01662160079866</v>
       </c>
       <c r="N2">
-        <v>1.057060332898042</v>
+        <v>1.016060068102385</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.052277394149757</v>
+        <v>1.001420233970037</v>
       </c>
       <c r="D3">
-        <v>1.049812534128018</v>
+        <v>1.017260972194692</v>
       </c>
       <c r="E3">
-        <v>1.058911033885642</v>
+        <v>1.01260364546554</v>
       </c>
       <c r="F3">
-        <v>1.069462546953422</v>
+        <v>1.014694513022828</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036827886014476</v>
+        <v>1.04082574804305</v>
       </c>
       <c r="J3">
-        <v>1.056955887792743</v>
+        <v>1.021872256710767</v>
       </c>
       <c r="K3">
-        <v>1.052382969914302</v>
+        <v>1.027677658461803</v>
       </c>
       <c r="L3">
-        <v>1.061458166361066</v>
+        <v>1.023077760717899</v>
       </c>
       <c r="M3">
-        <v>1.071983189389152</v>
+        <v>1.02514276485549</v>
       </c>
       <c r="N3">
-        <v>1.058456886387943</v>
+        <v>1.023323432525683</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.053405986869099</v>
+        <v>1.007167330919155</v>
       </c>
       <c r="D4">
-        <v>1.050661316087223</v>
+        <v>1.021599700083728</v>
       </c>
       <c r="E4">
-        <v>1.059964849921135</v>
+        <v>1.017796448470714</v>
       </c>
       <c r="F4">
-        <v>1.07068382793268</v>
+        <v>1.020603508330584</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037065383144963</v>
+        <v>1.042373211199844</v>
       </c>
       <c r="J4">
-        <v>1.057855016510148</v>
+        <v>1.026389455757499</v>
       </c>
       <c r="K4">
-        <v>1.053108760611559</v>
+        <v>1.031444241960069</v>
       </c>
       <c r="L4">
-        <v>1.062389683337169</v>
+        <v>1.027684727973525</v>
       </c>
       <c r="M4">
-        <v>1.073083133202091</v>
+        <v>1.030459467575361</v>
       </c>
       <c r="N4">
-        <v>1.059357291971259</v>
+        <v>1.027847046513191</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.053879751762024</v>
+        <v>1.009534992133361</v>
       </c>
       <c r="D5">
-        <v>1.05101747450394</v>
+        <v>1.023387392135402</v>
       </c>
       <c r="E5">
-        <v>1.060407280636759</v>
+        <v>1.019937245524488</v>
       </c>
       <c r="F5">
-        <v>1.071196727175035</v>
+        <v>1.023040407541243</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037164612656027</v>
+        <v>1.043007114583946</v>
       </c>
       <c r="J5">
-        <v>1.058232243547891</v>
+        <v>1.028249122863925</v>
       </c>
       <c r="K5">
-        <v>1.053413084552657</v>
+        <v>1.032993778433869</v>
       </c>
       <c r="L5">
-        <v>1.062780585335306</v>
+        <v>1.029582135069929</v>
       </c>
       <c r="M5">
-        <v>1.073544919360419</v>
+        <v>1.03265065169897</v>
       </c>
       <c r="N5">
-        <v>1.059735054714664</v>
+        <v>1.029709354560215</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.053959258629429</v>
+        <v>1.009929790810851</v>
       </c>
       <c r="D6">
-        <v>1.051077236110433</v>
+        <v>1.023685492652149</v>
       </c>
       <c r="E6">
-        <v>1.060481532284116</v>
+        <v>1.020294300308729</v>
       </c>
       <c r="F6">
-        <v>1.071282814749908</v>
+        <v>1.023446899284977</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037181237815144</v>
+        <v>1.043112600555139</v>
       </c>
       <c r="J6">
-        <v>1.058295537020639</v>
+        <v>1.028559136110829</v>
       </c>
       <c r="K6">
-        <v>1.053464135342626</v>
+        <v>1.033252024928948</v>
       </c>
       <c r="L6">
-        <v>1.062846178359608</v>
+        <v>1.02989848595402</v>
       </c>
       <c r="M6">
-        <v>1.073622418751153</v>
+        <v>1.033016070698368</v>
       </c>
       <c r="N6">
-        <v>1.059798438071404</v>
+        <v>1.030019808061488</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.053412320050688</v>
+        <v>1.007199153517607</v>
       </c>
       <c r="D7">
-        <v>1.05066607770977</v>
+        <v>1.021623726849034</v>
       </c>
       <c r="E7">
-        <v>1.05997076401577</v>
+        <v>1.017825216118392</v>
       </c>
       <c r="F7">
-        <v>1.070690683367754</v>
+        <v>1.020636251527758</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037066711463009</v>
+        <v>1.042381745625101</v>
       </c>
       <c r="J7">
-        <v>1.057860060032106</v>
+        <v>1.026414455941405</v>
       </c>
       <c r="K7">
-        <v>1.053112830126874</v>
+        <v>1.031465077419482</v>
       </c>
       <c r="L7">
-        <v>1.062394909352599</v>
+        <v>1.027710232396845</v>
       </c>
       <c r="M7">
-        <v>1.073089306067807</v>
+        <v>1.030488915008425</v>
       </c>
       <c r="N7">
-        <v>1.059362342655596</v>
+        <v>1.027872082200226</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.051120262886017</v>
+        <v>0.9953651039891923</v>
       </c>
       <c r="D8">
-        <v>1.048941792728044</v>
+        <v>1.012691053847727</v>
       </c>
       <c r="E8">
-        <v>1.05783076276899</v>
+        <v>1.007138049063582</v>
       </c>
       <c r="F8">
-        <v>1.068211153861196</v>
+        <v>1.008477877724054</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036582786601746</v>
+        <v>1.039182928246008</v>
       </c>
       <c r="J8">
-        <v>1.056033298216218</v>
+        <v>1.01710861437698</v>
       </c>
       <c r="K8">
-        <v>1.051637629014216</v>
+        <v>1.023701817646966</v>
       </c>
       <c r="L8">
-        <v>1.060502638786597</v>
+        <v>1.018222191324212</v>
       </c>
       <c r="M8">
-        <v>1.070855594787259</v>
+        <v>1.019544222419711</v>
       </c>
       <c r="N8">
-        <v>1.057532986628398</v>
+        <v>1.018553025273384</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.047057939490574</v>
+        <v>0.9726628432245439</v>
       </c>
       <c r="D9">
-        <v>1.045881156491988</v>
+        <v>0.9955786621571477</v>
       </c>
       <c r="E9">
-        <v>1.054039780219328</v>
+        <v>0.9866966341153182</v>
       </c>
       <c r="F9">
-        <v>1.06382382339673</v>
+        <v>0.9852459160554143</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035710104655525</v>
+        <v>1.032929880732143</v>
       </c>
       <c r="J9">
-        <v>1.052788845272026</v>
+        <v>0.9992193045977223</v>
       </c>
       <c r="K9">
-        <v>1.049011834042863</v>
+        <v>1.008743882110075</v>
       </c>
       <c r="L9">
-        <v>1.057144611509583</v>
+        <v>1.000009300846403</v>
       </c>
       <c r="M9">
-        <v>1.066898230036181</v>
+        <v>0.9985829913100442</v>
       </c>
       <c r="N9">
-        <v>1.054283926188881</v>
+        <v>1.000638310622308</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.044333007124472</v>
+        <v>0.95597832978195</v>
       </c>
       <c r="D10">
-        <v>1.043825124168709</v>
+        <v>0.9830344650767479</v>
       </c>
       <c r="E10">
-        <v>1.051498139732728</v>
+        <v>0.9717251121544377</v>
       </c>
       <c r="F10">
-        <v>1.060885781310262</v>
+        <v>0.9682410719897739</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035114665192634</v>
+        <v>1.02826182270387</v>
       </c>
       <c r="J10">
-        <v>1.050607983374657</v>
+        <v>0.986054358341277</v>
       </c>
       <c r="K10">
-        <v>1.047242995511265</v>
+        <v>0.9977169460364879</v>
       </c>
       <c r="L10">
-        <v>1.05488926404603</v>
+        <v>0.98662435990773</v>
       </c>
       <c r="M10">
-        <v>1.064244760289593</v>
+        <v>0.9832084378802771</v>
       </c>
       <c r="N10">
-        <v>1.052099967217469</v>
+        <v>0.9874546686321373</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.043148899965227</v>
+        <v>0.9482999127698489</v>
       </c>
       <c r="D11">
-        <v>1.042930988199014</v>
+        <v>0.9772734461031821</v>
       </c>
       <c r="E11">
-        <v>1.05039399389662</v>
+        <v>0.9648499921184535</v>
       </c>
       <c r="F11">
-        <v>1.059610233272208</v>
+        <v>0.9604331709015264</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034853540878897</v>
+        <v>1.026098262692733</v>
       </c>
       <c r="J11">
-        <v>1.049659229042471</v>
+        <v>0.9799936787828215</v>
       </c>
       <c r="K11">
-        <v>1.04647258618044</v>
+        <v>0.9926370669132</v>
       </c>
       <c r="L11">
-        <v>1.05390854409118</v>
+        <v>0.9804666906281626</v>
       </c>
       <c r="M11">
-        <v>1.063091961320046</v>
+        <v>0.9761419309916354</v>
       </c>
       <c r="N11">
-        <v>1.051149865545308</v>
+        <v>0.9813853822135392</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.042708421075772</v>
+        <v>0.9453705166877427</v>
       </c>
       <c r="D12">
-        <v>1.042598273329866</v>
+        <v>0.9750777966522842</v>
       </c>
       <c r="E12">
-        <v>1.049983307724162</v>
+        <v>0.9622295890885628</v>
       </c>
       <c r="F12">
-        <v>1.059135914350814</v>
+        <v>0.9574572263777731</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034756047857929</v>
+        <v>1.025270750428395</v>
       </c>
       <c r="J12">
-        <v>1.049306139352295</v>
+        <v>0.9776813886826625</v>
       </c>
       <c r="K12">
-        <v>1.046185734998718</v>
+        <v>0.9906985661010141</v>
       </c>
       <c r="L12">
-        <v>1.053543623706439</v>
+        <v>0.9781180396214145</v>
       </c>
       <c r="M12">
-        <v>1.062663167355153</v>
+        <v>0.9734475318791586</v>
       </c>
       <c r="N12">
-        <v>1.050796274427272</v>
+        <v>0.9790698083962145</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.042802934954245</v>
+        <v>0.9460025451269858</v>
       </c>
       <c r="D13">
-        <v>1.042669668841372</v>
+        <v>0.9755514076781349</v>
       </c>
       <c r="E13">
-        <v>1.050071426787076</v>
+        <v>0.9627948321974984</v>
       </c>
       <c r="F13">
-        <v>1.059237681375523</v>
+        <v>0.9580991665242479</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034776983137258</v>
+        <v>1.025449380083463</v>
       </c>
       <c r="J13">
-        <v>1.049381909307889</v>
+        <v>0.978180273632089</v>
       </c>
       <c r="K13">
-        <v>1.046247296829901</v>
+        <v>0.991116821116325</v>
       </c>
       <c r="L13">
-        <v>1.053621929457208</v>
+        <v>0.978624740600231</v>
       </c>
       <c r="M13">
-        <v>1.062755172243591</v>
+        <v>0.9740287857443173</v>
       </c>
       <c r="N13">
-        <v>1.050872151984894</v>
+        <v>0.9795694018194923</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.043112503186733</v>
+        <v>0.9480594036055083</v>
       </c>
       <c r="D14">
-        <v>1.042903498055955</v>
+        <v>0.9770931309103864</v>
       </c>
       <c r="E14">
-        <v>1.050360057913758</v>
+        <v>0.9646347990140384</v>
       </c>
       <c r="F14">
-        <v>1.059571036715777</v>
+        <v>0.9601887813708218</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034845492299469</v>
+        <v>1.026030363344893</v>
       </c>
       <c r="J14">
-        <v>1.049630056499659</v>
+        <v>0.9798038353782834</v>
       </c>
       <c r="K14">
-        <v>1.046448889054975</v>
+        <v>0.9924779198862306</v>
       </c>
       <c r="L14">
-        <v>1.053878392749334</v>
+        <v>0.9802738489265367</v>
       </c>
       <c r="M14">
-        <v>1.06305652928006</v>
+        <v>0.9759206830667075</v>
       </c>
       <c r="N14">
-        <v>1.05112065157414</v>
+        <v>0.9811952692095912</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.043303151859102</v>
+        <v>0.9493161582203359</v>
       </c>
       <c r="D15">
-        <v>1.04304748898869</v>
+        <v>0.9780354419372703</v>
       </c>
       <c r="E15">
-        <v>1.050537818737031</v>
+        <v>0.9657593714296335</v>
       </c>
       <c r="F15">
-        <v>1.0597763579809</v>
+        <v>0.9614659288982536</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034887636679974</v>
+        <v>1.026385080593872</v>
       </c>
       <c r="J15">
-        <v>1.049782857603712</v>
+        <v>0.9807958398279029</v>
       </c>
       <c r="K15">
-        <v>1.046573005296009</v>
+        <v>0.9933095081580139</v>
       </c>
       <c r="L15">
-        <v>1.054036323332253</v>
+        <v>0.9812815466625294</v>
       </c>
       <c r="M15">
-        <v>1.063242126167995</v>
+        <v>0.9770768540093092</v>
       </c>
       <c r="N15">
-        <v>1.051273669673286</v>
+        <v>0.9821886824193138</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.044411502470198</v>
+        <v>0.9564776201395612</v>
       </c>
       <c r="D16">
-        <v>1.04388438258997</v>
+        <v>0.9834093574489482</v>
       </c>
       <c r="E16">
-        <v>1.051571341023704</v>
+        <v>0.9721724975608881</v>
       </c>
       <c r="F16">
-        <v>1.06097036287251</v>
+        <v>0.968749163026446</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035131925323415</v>
+        <v>1.028402211105437</v>
       </c>
       <c r="J16">
-        <v>1.050670854530742</v>
+        <v>0.9864484316091235</v>
       </c>
       <c r="K16">
-        <v>1.047294029392464</v>
+        <v>0.998047184143654</v>
       </c>
       <c r="L16">
-        <v>1.054954262672493</v>
+        <v>0.9870248275382648</v>
       </c>
       <c r="M16">
-        <v>1.064321185569825</v>
+        <v>0.9836681395059178</v>
       </c>
       <c r="N16">
-        <v>1.052162927657807</v>
+        <v>0.9878493015292251</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.04510560565049</v>
+        <v>0.9608423916468787</v>
       </c>
       <c r="D17">
-        <v>1.044408301184233</v>
+        <v>0.9866880313892517</v>
       </c>
       <c r="E17">
-        <v>1.052218667123161</v>
+        <v>0.9760852188684537</v>
       </c>
       <c r="F17">
-        <v>1.06171841841493</v>
+        <v>0.9731928905082324</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035284275593797</v>
+        <v>1.029627794126339</v>
       </c>
       <c r="J17">
-        <v>1.05122667583086</v>
+        <v>0.9898931984687547</v>
       </c>
       <c r="K17">
-        <v>1.047745097941659</v>
+        <v>1.000933564211673</v>
       </c>
       <c r="L17">
-        <v>1.055528942662973</v>
+        <v>0.9905259693598706</v>
       </c>
       <c r="M17">
-        <v>1.06499701335642</v>
+        <v>0.9876878588330239</v>
       </c>
       <c r="N17">
-        <v>1.052719538287925</v>
+        <v>0.991298960352917</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.045510060961254</v>
+        <v>0.9633451900092237</v>
       </c>
       <c r="D18">
-        <v>1.044713522447923</v>
+        <v>0.9885691338210719</v>
       </c>
       <c r="E18">
-        <v>1.052595895389186</v>
+        <v>0.9783301783903082</v>
       </c>
       <c r="F18">
-        <v>1.062154424026513</v>
+        <v>0.9757426194426151</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035372821325605</v>
+        <v>1.03032912080591</v>
       </c>
       <c r="J18">
-        <v>1.051550450899088</v>
+        <v>0.9918682550889347</v>
       </c>
       <c r="K18">
-        <v>1.048007766151233</v>
+        <v>1.002588139860528</v>
       </c>
       <c r="L18">
-        <v>1.055863745414477</v>
+        <v>0.9925337472541981</v>
       </c>
       <c r="M18">
-        <v>1.065390844036131</v>
+        <v>0.989993629330931</v>
       </c>
       <c r="N18">
-        <v>1.053043773153888</v>
+        <v>0.9932768217800398</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.045647901922151</v>
+        <v>0.9641915181308681</v>
       </c>
       <c r="D19">
-        <v>1.044817532373476</v>
+        <v>0.989205405531597</v>
       </c>
       <c r="E19">
-        <v>1.052724462274183</v>
+        <v>0.9790895426833648</v>
       </c>
       <c r="F19">
-        <v>1.062303036547165</v>
+        <v>0.9766050941046052</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035402959404299</v>
+        <v>1.030566027775179</v>
       </c>
       <c r="J19">
-        <v>1.051660778009289</v>
+        <v>0.9925360854920317</v>
       </c>
       <c r="K19">
-        <v>1.048097256239431</v>
+        <v>1.00314754632524</v>
       </c>
       <c r="L19">
-        <v>1.055977837394225</v>
+        <v>0.993212709461152</v>
       </c>
       <c r="M19">
-        <v>1.065525068197733</v>
+        <v>0.9907734674468706</v>
       </c>
       <c r="N19">
-        <v>1.05315425694124</v>
+        <v>0.9939456005789106</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.045031176801869</v>
+        <v>0.9603786111590682</v>
       </c>
       <c r="D20">
-        <v>1.044352128206167</v>
+        <v>0.9863395391089976</v>
       </c>
       <c r="E20">
-        <v>1.052149251076885</v>
+        <v>0.9756693266281323</v>
       </c>
       <c r="F20">
-        <v>1.061638192634996</v>
+        <v>0.9727205470430003</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035267962737269</v>
+        <v>1.029497717247421</v>
       </c>
       <c r="J20">
-        <v>1.051167085646725</v>
+        <v>0.9895271931114547</v>
       </c>
       <c r="K20">
-        <v>1.047696747372895</v>
+        <v>1.00062692089647</v>
       </c>
       <c r="L20">
-        <v>1.055467326254488</v>
+        <v>0.9901539326817269</v>
       </c>
       <c r="M20">
-        <v>1.064924541647712</v>
+        <v>0.9872606545734066</v>
       </c>
       <c r="N20">
-        <v>1.052659863478893</v>
+        <v>0.9909324352260283</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.043021361118877</v>
+        <v>0.9474559255778054</v>
       </c>
       <c r="D21">
-        <v>1.042834657653861</v>
+        <v>0.9766407272573709</v>
       </c>
       <c r="E21">
-        <v>1.050275078757734</v>
+        <v>0.96409488482907</v>
       </c>
       <c r="F21">
-        <v>1.059472886486557</v>
+        <v>0.9595756131763542</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034825331894977</v>
+        <v>1.025859959615815</v>
       </c>
       <c r="J21">
-        <v>1.049557002231862</v>
+        <v>0.9793274858644752</v>
       </c>
       <c r="K21">
-        <v>1.046389544228455</v>
+        <v>0.9920785866732094</v>
       </c>
       <c r="L21">
-        <v>1.05380288841987</v>
+        <v>0.9797899864870562</v>
       </c>
       <c r="M21">
-        <v>1.062967803660582</v>
+        <v>0.9753655602503265</v>
       </c>
       <c r="N21">
-        <v>1.051047493560902</v>
+        <v>0.9807182432248354</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.041753947211153</v>
+        <v>0.9388778403774</v>
       </c>
       <c r="D22">
-        <v>1.041877126470264</v>
+        <v>0.9702160912746328</v>
       </c>
       <c r="E22">
-        <v>1.049093479823396</v>
+        <v>0.9564267967576495</v>
       </c>
       <c r="F22">
-        <v>1.058108433528277</v>
+        <v>0.9508668591722698</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034544138078294</v>
+        <v>1.023433042825773</v>
       </c>
       <c r="J22">
-        <v>1.048540736535283</v>
+        <v>0.9725566001951803</v>
       </c>
       <c r="K22">
-        <v>1.045563673654795</v>
+        <v>0.9864015995834341</v>
       </c>
       <c r="L22">
-        <v>1.052752695156321</v>
+        <v>0.972913853503251</v>
       </c>
       <c r="M22">
-        <v>1.061734084354961</v>
+        <v>0.9674788036456389</v>
       </c>
       <c r="N22">
-        <v>1.050029784650466</v>
+        <v>0.9739377421212586</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.042426190310532</v>
+        <v>0.943471720770222</v>
       </c>
       <c r="D23">
-        <v>1.042385062049829</v>
+        <v>0.9736552988649092</v>
       </c>
       <c r="E23">
-        <v>1.049720179755409</v>
+        <v>0.960531830463174</v>
       </c>
       <c r="F23">
-        <v>1.058832050432328</v>
+        <v>0.9555290844714317</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034693480190616</v>
+        <v>1.024733806027499</v>
       </c>
       <c r="J23">
-        <v>1.049079856959734</v>
+        <v>0.9761826024024628</v>
       </c>
       <c r="K23">
-        <v>1.04600186464725</v>
+        <v>0.9894419637540207</v>
       </c>
       <c r="L23">
-        <v>1.053309777918884</v>
+        <v>0.9765958660849321</v>
       </c>
       <c r="M23">
-        <v>1.062388434423745</v>
+        <v>0.9717015206098464</v>
       </c>
       <c r="N23">
-        <v>1.050569670687759</v>
+        <v>0.9775688936675839</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.045064809240781</v>
+        <v>0.9605883061161811</v>
       </c>
       <c r="D24">
-        <v>1.044377511505093</v>
+        <v>0.9864971040101335</v>
       </c>
       <c r="E24">
-        <v>1.052180618269417</v>
+        <v>0.9758573650181265</v>
       </c>
       <c r="F24">
-        <v>1.06167444420798</v>
+        <v>0.9729341085432329</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035275334796292</v>
+        <v>1.029556535033228</v>
       </c>
       <c r="J24">
-        <v>1.051194013202303</v>
+        <v>0.9896926804060382</v>
       </c>
       <c r="K24">
-        <v>1.047718596249783</v>
+        <v>1.000765569007751</v>
       </c>
       <c r="L24">
-        <v>1.055495169287942</v>
+        <v>0.9903221457635299</v>
       </c>
       <c r="M24">
-        <v>1.064957289630926</v>
+        <v>0.9874538092924386</v>
       </c>
       <c r="N24">
-        <v>1.052686829274689</v>
+        <v>0.9910981575315517</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.048111022400185</v>
+        <v>0.9787796774866676</v>
       </c>
       <c r="D25">
-        <v>1.046675106153855</v>
+        <v>1.000185192704082</v>
       </c>
       <c r="E25">
-        <v>1.055022300693879</v>
+        <v>0.9921964339549495</v>
       </c>
       <c r="F25">
-        <v>1.064960298392646</v>
+        <v>0.9914943146233274</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035938102102679</v>
+        <v>1.034627436112887</v>
       </c>
       <c r="J25">
-        <v>1.053630710816539</v>
+        <v>1.004042919499182</v>
       </c>
       <c r="K25">
-        <v>1.049693845759326</v>
+        <v>1.01278063447443</v>
       </c>
       <c r="L25">
-        <v>1.058015620343417</v>
+        <v>1.004917110300919</v>
       </c>
       <c r="M25">
-        <v>1.067923919482813</v>
+        <v>1.004226121213055</v>
       </c>
       <c r="N25">
-        <v>1.05512698727903</v>
+        <v>1.005468775610203</v>
       </c>
     </row>
   </sheetData>
